--- a/data_final/consolidated/dictionaries/Z_Latest_Dict.xlsx
+++ b/data_final/consolidated/dictionaries/Z_Latest_Dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimer\github\opioid-policy-scan\data_final\consolidated\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12FB636-1213-419B-8191-59DCABBCA3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB376A3-F0F5-4BC6-8A53-79A0AABF1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="10613" xr2:uid="{09EDD834-1AFA-47A4-9D3D-06147D07211D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{09EDD834-1AFA-47A4-9D3D-06147D07211D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1041,8 +1041,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1076,9 +1084,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,57 +1404,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C124711F-D56B-4700-AEF7-9E2D1BC031D1}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1"/>
     <col min="3" max="3" width="67.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="1"/>
     <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>291</v>
@@ -1471,10 +1480,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>136</v>
@@ -1500,10 +1509,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>140</v>
@@ -1529,10 +1538,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>332</v>
@@ -1558,10 +1567,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
@@ -1587,10 +1596,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>143</v>
@@ -1616,10 +1625,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>144</v>
@@ -1645,10 +1654,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>146</v>
@@ -1674,10 +1683,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>147</v>
@@ -1703,10 +1712,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>148</v>
@@ -1732,10 +1741,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>149</v>
@@ -1761,10 +1770,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>150</v>
@@ -1790,10 +1799,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>151</v>
@@ -1819,10 +1828,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>152</v>
@@ -1848,10 +1857,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>153</v>
@@ -1877,10 +1886,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>154</v>
@@ -1906,10 +1915,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>155</v>
@@ -1935,10 +1944,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>156</v>
@@ -1964,10 +1973,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>157</v>
@@ -1993,10 +2002,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>158</v>
@@ -2022,10 +2031,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>159</v>
@@ -2051,10 +2060,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>160</v>
@@ -2080,10 +2089,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>161</v>
@@ -2109,10 +2118,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>162</v>
@@ -2138,10 +2147,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>163</v>
@@ -2167,10 +2176,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>164</v>
@@ -2196,10 +2205,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>165</v>
@@ -2225,10 +2234,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>166</v>
@@ -2254,10 +2263,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>167</v>
@@ -2283,10 +2292,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>168</v>
@@ -2312,10 +2321,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>170</v>
@@ -2341,10 +2350,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>171</v>
@@ -2370,10 +2379,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>174</v>
@@ -2399,10 +2408,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>175</v>
@@ -2428,10 +2437,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>176</v>
@@ -2457,10 +2466,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>179</v>
@@ -2486,10 +2495,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>180</v>
@@ -2515,10 +2524,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>181</v>
@@ -2544,10 +2553,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>182</v>
@@ -2573,10 +2582,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>183</v>
@@ -2602,10 +2611,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>184</v>
@@ -2631,10 +2640,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>185</v>
@@ -2660,10 +2669,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>186</v>
@@ -2689,10 +2698,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>187</v>
@@ -2718,10 +2727,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>188</v>
@@ -2747,10 +2756,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>189</v>
@@ -2776,10 +2785,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>190</v>
@@ -2805,10 +2814,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>191</v>
@@ -2834,10 +2843,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>193</v>
@@ -2863,10 +2872,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>196</v>
@@ -2892,10 +2901,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>197</v>
@@ -2921,10 +2930,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>198</v>
@@ -2950,10 +2959,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>199</v>
@@ -2979,10 +2988,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>200</v>
@@ -3008,10 +3017,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>201</v>
@@ -3037,10 +3046,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>205</v>
@@ -3066,10 +3075,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>206</v>
@@ -3095,10 +3104,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>209</v>
@@ -3124,10 +3133,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>212</v>
@@ -3153,10 +3162,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>213</v>
@@ -3182,10 +3191,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>214</v>
@@ -3211,10 +3220,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>282</v>
@@ -3240,10 +3249,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>283</v>
@@ -3269,10 +3278,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>284</v>
@@ -3298,10 +3307,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>285</v>
@@ -3327,10 +3336,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>286</v>
@@ -3356,10 +3365,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>287</v>
@@ -3385,10 +3394,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>288</v>
@@ -3414,10 +3423,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>289</v>
@@ -3443,10 +3452,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>290</v>
@@ -3472,10 +3481,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>215</v>
@@ -3501,10 +3510,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>218</v>
@@ -3530,10 +3539,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>221</v>
@@ -3559,10 +3568,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>222</v>
@@ -3588,10 +3597,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>223</v>
@@ -3617,10 +3626,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>224</v>
@@ -3646,10 +3655,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>225</v>
@@ -3675,10 +3684,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>223</v>
@@ -3704,10 +3713,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>226</v>
@@ -3733,10 +3742,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>227</v>
@@ -3762,10 +3771,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>228</v>
@@ -3791,10 +3800,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>229</v>
@@ -3820,10 +3829,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>230</v>
@@ -3849,10 +3858,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>231</v>
@@ -3878,10 +3887,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>232</v>
@@ -3907,10 +3916,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>233</v>
@@ -3936,10 +3945,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>234</v>
@@ -3965,10 +3974,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>235</v>
@@ -3994,10 +4003,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>236</v>
@@ -4023,10 +4032,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>237</v>
@@ -4052,10 +4061,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>238</v>
@@ -4081,10 +4090,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>239</v>
@@ -4110,10 +4119,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>240</v>
@@ -4139,10 +4148,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>241</v>
@@ -4168,10 +4177,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>242</v>
@@ -4197,10 +4206,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>243</v>
@@ -4226,10 +4235,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>244</v>
@@ -4255,10 +4264,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>245</v>
@@ -4284,10 +4293,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>246</v>
@@ -4313,10 +4322,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>247</v>
@@ -4342,10 +4351,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>250</v>
@@ -4371,10 +4380,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>251</v>
@@ -4400,10 +4409,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>252</v>
@@ -4429,10 +4438,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>254</v>
@@ -4458,10 +4467,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>255</v>
@@ -4487,10 +4496,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>256</v>
@@ -4516,10 +4525,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>258</v>
@@ -4545,10 +4554,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>259</v>
@@ -4574,10 +4583,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>260</v>
@@ -4603,10 +4612,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>263</v>
@@ -4632,10 +4641,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>264</v>
@@ -4661,10 +4670,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>265</v>
@@ -4690,10 +4699,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>266</v>
@@ -4719,10 +4728,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>267</v>
@@ -4748,10 +4757,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>268</v>
@@ -4777,10 +4786,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>271</v>
@@ -4806,10 +4815,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>272</v>
@@ -4835,10 +4844,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>274</v>
@@ -4864,10 +4873,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>278</v>
@@ -4893,10 +4902,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>279</v>
@@ -4922,10 +4931,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>280</v>
@@ -4951,10 +4960,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>281</v>
@@ -4980,5 +4989,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_final/consolidated/dictionaries/Z_Latest_Dict.xlsx
+++ b/data_final/consolidated/dictionaries/Z_Latest_Dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimer\github\opioid-policy-scan\data_final\consolidated\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB376A3-F0F5-4BC6-8A53-79A0AABF1355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5C8B97-B3B0-4839-9627-F2311C2FD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{09EDD834-1AFA-47A4-9D3D-06147D07211D}"/>
+    <workbookView xWindow="22943" yWindow="-14655" windowWidth="38595" windowHeight="21795" xr2:uid="{09EDD834-1AFA-47A4-9D3D-06147D07211D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="355">
   <si>
     <t>GEOID</t>
   </si>
@@ -1035,6 +1035,72 @@
   </si>
   <si>
     <t>Total veteran population</t>
+  </si>
+  <si>
+    <t>OEPSv1</t>
+  </si>
+  <si>
+    <t>DS01</t>
+  </si>
+  <si>
+    <t>DS03</t>
+  </si>
+  <si>
+    <t>DS04</t>
+  </si>
+  <si>
+    <t>DS05</t>
+  </si>
+  <si>
+    <t>DS06</t>
+  </si>
+  <si>
+    <t>EC01</t>
+  </si>
+  <si>
+    <t>EC02</t>
+  </si>
+  <si>
+    <t>EC03</t>
+  </si>
+  <si>
+    <t>EC05</t>
+  </si>
+  <si>
+    <t>BE01</t>
+  </si>
+  <si>
+    <t>BE02</t>
+  </si>
+  <si>
+    <t>BE03</t>
+  </si>
+  <si>
+    <t>BE05</t>
+  </si>
+  <si>
+    <t>BE06</t>
+  </si>
+  <si>
+    <t>Access01</t>
+  </si>
+  <si>
+    <t>Access02</t>
+  </si>
+  <si>
+    <t>Access03</t>
+  </si>
+  <si>
+    <t>Access04</t>
+  </si>
+  <si>
+    <t>Access05</t>
+  </si>
+  <si>
+    <t>Access06</t>
+  </si>
+  <si>
+    <t>Access07</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C124711F-D56B-4700-AEF7-9E2D1BC031D1}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1417,7 +1483,7 @@
     <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
@@ -1437,19 +1503,22 @@
         <v>126</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -1468,17 +1537,17 @@
       <c r="F2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
@@ -1498,16 +1567,19 @@
         <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>17621</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -1527,16 +1599,19 @@
         <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>17077</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
@@ -1556,16 +1631,19 @@
         <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -1585,16 +1663,19 @@
         <v>138</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>7769</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>135</v>
       </c>
@@ -1614,16 +1695,19 @@
         <v>141</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>8867</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -1643,16 +1727,19 @@
         <v>138</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="1">
+        <v>334</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="1">
         <v>92.48</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
@@ -1672,16 +1759,19 @@
         <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="1">
+        <v>334</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="1">
         <v>1.96</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -1701,16 +1791,19 @@
         <v>138</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="1">
+        <v>334</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.03</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -1730,16 +1823,19 @@
         <v>138</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="1">
+        <v>334</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="1">
         <v>3.05</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
@@ -1759,16 +1855,19 @@
         <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="1">
+        <v>334</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
@@ -1788,16 +1887,19 @@
         <v>138</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="1">
+        <v>334</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
@@ -1817,16 +1919,19 @@
         <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="1">
+        <v>334</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="1">
         <v>5.52</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -1845,17 +1950,17 @@
       <c r="F15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="H15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.19</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -1875,16 +1980,19 @@
         <v>138</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="1">
+        <v>334</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="1">
         <v>7.33</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -1904,16 +2012,19 @@
         <v>138</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="1">
+        <v>334</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="1">
         <v>48.56</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
@@ -1933,16 +2044,19 @@
         <v>138</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="1">
+        <v>334</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="1">
         <v>24.11</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>135</v>
       </c>
@@ -1962,16 +2076,19 @@
         <v>138</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>799</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
@@ -1991,16 +2108,19 @@
         <v>138</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2023</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>135</v>
       </c>
@@ -2020,16 +2140,19 @@
         <v>138</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>642</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>135</v>
       </c>
@@ -2049,16 +2172,19 @@
         <v>138</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>649</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>135</v>
       </c>
@@ -2078,16 +2204,19 @@
         <v>138</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>5735</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>135</v>
       </c>
@@ -2107,16 +2236,19 @@
         <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>940</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
@@ -2136,16 +2268,19 @@
         <v>138</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>1428</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>135</v>
       </c>
@@ -2165,16 +2300,19 @@
         <v>138</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>1262</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
@@ -2194,16 +2332,19 @@
         <v>138</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>1185</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
@@ -2223,16 +2364,19 @@
         <v>138</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>4249</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>135</v>
       </c>
@@ -2252,16 +2396,19 @@
         <v>138</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>14325</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>135</v>
       </c>
@@ -2281,16 +2428,19 @@
         <v>138</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>10076</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>135</v>
       </c>
@@ -2310,16 +2460,19 @@
         <v>138</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="1">
+        <v>334</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="1">
         <v>14.3</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>169</v>
       </c>
@@ -2339,16 +2492,19 @@
         <v>138</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="1">
+        <v>334</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="1">
         <v>8.52</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -2368,16 +2524,19 @@
         <v>173</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="1">
+        <v>336</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="1">
         <v>9.44</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2397,16 +2556,19 @@
         <v>141</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="1">
+        <v>337</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="1">
         <v>4.34</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>135</v>
       </c>
@@ -2426,16 +2588,19 @@
         <v>141</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H35" s="1">
+        <v>337</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="1">
         <v>16.149999999999999</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -2455,16 +2620,19 @@
         <v>178</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
@@ -2484,16 +2652,19 @@
         <v>178</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>0</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
@@ -2513,16 +2684,19 @@
         <v>178</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>169</v>
       </c>
@@ -2542,16 +2716,19 @@
         <v>141</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="1">
+        <v>341</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" s="1">
         <v>3.4</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2571,16 +2748,19 @@
         <v>141</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="1">
+        <v>341</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="1">
         <v>9</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>169</v>
       </c>
@@ -2599,17 +2779,17 @@
       <c r="F41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="H41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="1">
         <v>33505</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -2629,16 +2809,19 @@
         <v>141</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="1">
+        <v>341</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="1">
         <v>35135</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -2657,17 +2840,17 @@
       <c r="F43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="H43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="1">
         <v>0.42</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -2687,16 +2870,19 @@
         <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="1">
+        <v>339</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="1">
         <v>13.43</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>169</v>
       </c>
@@ -2716,16 +2902,19 @@
         <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="1">
+        <v>339</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="1">
         <v>16.170000000000002</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
@@ -2745,16 +2934,19 @@
         <v>141</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="1">
+        <v>339</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="1">
         <v>14.5</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
@@ -2774,16 +2966,19 @@
         <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47" s="1">
+        <v>339</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="1">
         <v>13.54</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -2803,16 +2998,19 @@
         <v>141</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>3906</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
@@ -2832,16 +3030,19 @@
         <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49" s="1">
+        <v>340</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="1">
         <v>44.05</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>192</v>
       </c>
@@ -2861,16 +3062,19 @@
         <v>195</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" s="1">
+        <v>342</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" s="1">
         <v>14.18</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>192</v>
       </c>
@@ -2890,16 +3094,19 @@
         <v>138</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H51" s="1">
+        <v>343</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="1">
         <v>3.71</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>192</v>
       </c>
@@ -2919,16 +3126,19 @@
         <v>138</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="1">
+        <v>343</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="1">
         <v>0.91</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>192</v>
       </c>
@@ -2948,16 +3158,19 @@
         <v>138</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H53" s="1">
+        <v>343</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" s="1">
         <v>32.56</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>192</v>
       </c>
@@ -2977,16 +3190,19 @@
         <v>138</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" s="1">
+        <v>343</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="1">
         <v>26.69</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>192</v>
       </c>
@@ -3006,16 +3222,19 @@
         <v>138</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" s="1">
+        <v>343</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="1">
         <v>675.31</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>192</v>
       </c>
@@ -3035,16 +3254,19 @@
         <v>203</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>1</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>192</v>
       </c>
@@ -3064,16 +3286,19 @@
         <v>203</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>1</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>192</v>
       </c>
@@ -3093,16 +3318,19 @@
         <v>203</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -3122,16 +3350,19 @@
         <v>211</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" s="1">
+        <v>345</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="1">
         <v>11.5</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>192</v>
       </c>
@@ -3151,16 +3382,19 @@
         <v>211</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>6</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>192</v>
       </c>
@@ -3180,16 +3414,19 @@
         <v>211</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="1">
+        <v>345</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" s="1">
         <v>0.52</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>192</v>
       </c>
@@ -3209,16 +3446,19 @@
         <v>211</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="1">
+        <v>345</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>135</v>
       </c>
@@ -3238,16 +3478,19 @@
         <v>141</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="1">
+        <v>346</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" s="1">
         <v>0.16</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>135</v>
       </c>
@@ -3267,16 +3510,19 @@
         <v>141</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="1">
+        <v>346</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="1">
         <v>0.89</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -3296,16 +3542,19 @@
         <v>141</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="1">
+        <v>346</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" s="1">
         <v>0.02</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -3325,16 +3574,19 @@
         <v>141</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" s="1">
+        <v>346</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" s="1">
         <v>0.32</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
@@ -3354,16 +3606,19 @@
         <v>141</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="1">
+        <v>346</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" s="1">
         <v>0.87</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -3383,16 +3638,19 @@
         <v>141</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="1">
+        <v>346</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="1">
         <v>0.08</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
@@ -3412,16 +3670,19 @@
         <v>141</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="1">
+        <v>346</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="1">
         <v>0.3</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -3441,16 +3702,19 @@
         <v>141</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="1">
+        <v>346</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="1">
         <v>0.88</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
@@ -3470,16 +3734,19 @@
         <v>141</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="1">
+        <v>346</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" s="1">
         <v>0.04</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>192</v>
       </c>
@@ -3499,16 +3766,19 @@
         <v>217</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H72" s="1">
+        <v>347</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="1">
         <v>0.2</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>192</v>
       </c>
@@ -3528,16 +3798,19 @@
         <v>220</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H73" s="1">
+        <v>348</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="1">
         <v>2.97</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>192</v>
       </c>
@@ -3557,16 +3830,19 @@
         <v>220</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H74" s="1">
+        <v>348</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" s="1">
         <v>2.97</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>192</v>
       </c>
@@ -3586,16 +3862,19 @@
         <v>220</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H75" s="1">
+        <v>348</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" s="1">
         <v>8</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
@@ -3615,16 +3894,19 @@
         <v>220</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>233</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>192</v>
       </c>
@@ -3644,16 +3926,19 @@
         <v>220</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="1">
+        <v>348</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I77" s="1">
         <v>4.01</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>192</v>
       </c>
@@ -3673,16 +3958,19 @@
         <v>220</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H78" s="1">
+        <v>348</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I78" s="1">
         <v>8</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>192</v>
       </c>
@@ -3702,16 +3990,19 @@
         <v>220</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>8</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>192</v>
       </c>
@@ -3731,16 +4022,19 @@
         <v>220</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" s="1">
+        <v>348</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I80" s="1">
         <v>3.16</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>192</v>
       </c>
@@ -3760,16 +4054,19 @@
         <v>220</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H81" s="1">
+        <v>348</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" s="1">
         <v>8</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
@@ -3789,16 +4086,19 @@
         <v>220</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>27</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>192</v>
       </c>
@@ -3818,16 +4118,19 @@
         <v>220</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H83" s="1">
+        <v>348</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" s="1">
         <v>78.55</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>192</v>
       </c>
@@ -3847,16 +4150,19 @@
         <v>220</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I84" s="1">
         <v>0</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>192</v>
       </c>
@@ -3876,16 +4182,19 @@
         <v>220</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>0</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>192</v>
       </c>
@@ -3905,16 +4214,19 @@
         <v>220</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H86" s="1">
+        <v>348</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I86" s="1">
         <v>79.39</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>192</v>
       </c>
@@ -3934,16 +4246,19 @@
         <v>220</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>0</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>192</v>
       </c>
@@ -3963,16 +4278,19 @@
         <v>220</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>0</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>192</v>
       </c>
@@ -3992,16 +4310,19 @@
         <v>220</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H89" s="1">
+        <v>348</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" s="1">
         <v>78.55</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>192</v>
       </c>
@@ -4021,16 +4342,19 @@
         <v>220</v>
       </c>
       <c r="G90" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>192</v>
       </c>
@@ -4050,16 +4374,19 @@
         <v>220</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>0</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>192</v>
       </c>
@@ -4079,16 +4406,19 @@
         <v>220</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H92" s="1">
+        <v>348</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I92" s="1">
         <v>78.55</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>192</v>
       </c>
@@ -4108,16 +4438,19 @@
         <v>220</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>0</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
@@ -4137,16 +4470,19 @@
         <v>220</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <v>0</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>192</v>
       </c>
@@ -4166,16 +4502,19 @@
         <v>220</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H95" s="1">
+        <v>348</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I95" s="1">
         <v>79.39</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>192</v>
       </c>
@@ -4195,16 +4534,19 @@
         <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>0</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -4224,16 +4566,19 @@
         <v>220</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>0</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
@@ -4253,16 +4598,19 @@
         <v>220</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H98" s="1">
+        <v>348</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I98" s="1">
         <v>78.55</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -4282,16 +4630,19 @@
         <v>220</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>0</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="J99" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>192</v>
       </c>
@@ -4311,16 +4662,19 @@
         <v>220</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>0</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>192</v>
       </c>
@@ -4340,16 +4694,19 @@
         <v>249</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H101" s="1">
+        <v>349</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I101" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>192</v>
       </c>
@@ -4369,16 +4726,19 @@
         <v>249</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H102" s="1">
+        <v>349</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I102" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>192</v>
       </c>
@@ -4398,16 +4758,19 @@
         <v>249</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>30</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>192</v>
       </c>
@@ -4427,16 +4790,19 @@
         <v>253</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H104" s="1">
+        <v>350</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I104" s="1">
         <v>5.39</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>192</v>
       </c>
@@ -4456,16 +4822,19 @@
         <v>253</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H105" s="1">
+        <v>350</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I105" s="1">
         <v>10.4</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>192</v>
       </c>
@@ -4485,16 +4854,19 @@
         <v>253</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <v>9</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="J106" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>192</v>
       </c>
@@ -4514,16 +4886,19 @@
         <v>257</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H107" s="1">
+        <v>351</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I107" s="1">
         <v>0.4</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>192</v>
       </c>
@@ -4543,16 +4918,19 @@
         <v>257</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H108" s="1">
+        <v>351</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I108" s="1">
         <v>0</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>192</v>
       </c>
@@ -4572,16 +4950,19 @@
         <v>257</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <v>115</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>192</v>
       </c>
@@ -4601,16 +4982,19 @@
         <v>262</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H110" s="1">
+        <v>352</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I110" s="1">
         <v>3.78</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="J110" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>192</v>
       </c>
@@ -4630,16 +5014,19 @@
         <v>262</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H111" s="1">
+        <v>352</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I111" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="J111" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>192</v>
       </c>
@@ -4659,16 +5046,19 @@
         <v>262</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>30</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="J112" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>192</v>
       </c>
@@ -4688,16 +5078,19 @@
         <v>262</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H113" s="1">
+        <v>353</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I113" s="1">
         <v>1.93</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>192</v>
       </c>
@@ -4717,16 +5110,19 @@
         <v>262</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H114" s="1">
+        <v>353</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I114" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="J114" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>192</v>
       </c>
@@ -4746,16 +5142,19 @@
         <v>262</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>52</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>192</v>
       </c>
@@ -4775,16 +5174,19 @@
         <v>270</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H116" s="1">
+        <v>354</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I116" s="1">
         <v>3.99</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>192</v>
       </c>
@@ -4804,16 +5206,19 @@
         <v>270</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H117" s="1">
+        <v>354</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I117" s="1">
         <v>11</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="J117" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>192</v>
       </c>
@@ -4833,16 +5238,19 @@
         <v>270</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H118" s="1">
+      <c r="I118" s="1">
         <v>8.84</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="J118" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>273</v>
       </c>
@@ -4862,16 +5270,19 @@
         <v>276</v>
       </c>
       <c r="G119" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H119" s="1">
+      <c r="I119" s="1">
         <v>0.37</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>273</v>
       </c>
@@ -4891,16 +5302,19 @@
         <v>276</v>
       </c>
       <c r="G120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H120" s="1">
+      <c r="I120" s="1">
         <v>0.32</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>273</v>
       </c>
@@ -4920,16 +5334,19 @@
         <v>276</v>
       </c>
       <c r="G121" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H121" s="1">
+      <c r="I121" s="1">
         <v>0.5</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>273</v>
       </c>
@@ -4949,16 +5366,19 @@
         <v>276</v>
       </c>
       <c r="G122" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>273</v>
       </c>
@@ -4978,12 +5398,15 @@
         <v>276</v>
       </c>
       <c r="G123" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>0.51</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>330</v>
       </c>
     </row>
